--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\SkyDrive\Documents\Denise\Rutgers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\icQzPtsTracker\iClickerQuizPtsTracker\iClickerQuizPtsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,11 @@
   <definedNames>
     <definedName name="ptrCourse">iClickerQuizPts!$B$1</definedName>
     <definedName name="ptrSemester">iClickerQuizPts!$B$2</definedName>
-    <definedName name="rowCourseWk" localSheetId="0">iClickerQuizPts!$2:$2</definedName>
-    <definedName name="rowSession" localSheetId="0">iClickerQuizPts!$3:$3</definedName>
+    <definedName name="rowCourseWk" localSheetId="0">iClickerQuizPts!$3:$3</definedName>
+    <definedName name="rowSessionDt" localSheetId="0">iClickerQuizPts!$2:$2</definedName>
+    <definedName name="rowSessionEnum" localSheetId="0">iClickerQuizPts!$4:$4</definedName>
     <definedName name="rowSessionNmbr" localSheetId="0">iClickerQuizPts!$1:$1</definedName>
-    <definedName name="rowTtlPts" localSheetId="0">iClickerQuizPts!$4:$4</definedName>
+    <definedName name="rowTtlPts" localSheetId="0">iClickerQuizPts!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Session Nmbr</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>Quiz Date</t>
+  </si>
+  <si>
+    <t>Session Date</t>
+  </si>
+  <si>
+    <t>Which Session</t>
   </si>
 </sst>
 </file>
@@ -347,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A5:D6" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A5:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A6:D7" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A6:D7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Student ID" dataDxfId="18"/>
     <tableColumn id="2" name="Last Name" dataDxfId="17"/>
@@ -688,13 +695,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="WshQuizPts"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,15 +728,13 @@
       <c r="B2" s="24"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -737,20 +742,28 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\icQzPtsTracker\iClickerQuizPtsTracker\iClickerQuizPtsTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\iClickerQuizPtsTracker\iClickerQuizPtsTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="iClickerQuizPts" sheetId="1" r:id="rId1"/>
     <sheet name="DoubleDippers" sheetId="3" r:id="rId2"/>
     <sheet name="StudentsAddedByDate" sheetId="2" r:id="rId3"/>
+    <sheet name="Email-lessStudents" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ptrCourse">iClickerQuizPts!$B$1</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Session Nmbr</t>
   </si>
@@ -272,7 +273,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -354,42 +364,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A6:D7" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A6:D7" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A6:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Student ID" dataDxfId="18"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="17"/>
-    <tableColumn id="3" name="First Name" dataDxfId="16"/>
-    <tableColumn id="4" name="Semester TOTAL" dataDxfId="15"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="21"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="20"/>
+    <tableColumn id="3" name="First Name" dataDxfId="19"/>
+    <tableColumn id="4" name="Semester TOTAL" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblDblDippers" displayName="tblDblDippers" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblDblDippers" displayName="tblDblDippers" ref="A1:I2" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Student ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="3" name="First Name" dataDxfId="11"/>
-    <tableColumn id="4" name="Course Week" dataDxfId="10"/>
-    <tableColumn id="5" name="Session" dataDxfId="9"/>
-    <tableColumn id="6" name="Quiz Date" dataDxfId="8"/>
-    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="7"/>
-    <tableColumn id="8" name="Student Score" dataDxfId="6"/>
-    <tableColumn id="9" name="Score Ignored" dataDxfId="5"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="16"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="15"/>
+    <tableColumn id="3" name="First Name" dataDxfId="14"/>
+    <tableColumn id="4" name="Course Week" dataDxfId="13"/>
+    <tableColumn id="5" name="Session" dataDxfId="12"/>
+    <tableColumn id="6" name="Quiz Date" dataDxfId="11"/>
+    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="10"/>
+    <tableColumn id="8" name="Student Score" dataDxfId="9"/>
+    <tableColumn id="9" name="Score Ignored" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="First Quiz Date" dataDxfId="3"/>
-    <tableColumn id="2" name="Student ID" dataDxfId="2"/>
+    <tableColumn id="1" name="First Quiz Date" dataDxfId="6"/>
+    <tableColumn id="2" name="Student ID" dataDxfId="5"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="4"/>
+    <tableColumn id="4" name="First Name" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblFirstQuizDts5" displayName="tblFirstQuizDts5" ref="A1:B2" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
     <tableColumn id="3" name="Last Name" dataDxfId="1"/>
     <tableColumn id="4" name="First Name" dataDxfId="0"/>
   </tableColumns>
@@ -701,7 +722,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,4 +895,34 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="7815"/>
+    <workbookView xWindow="480" yWindow="915" windowWidth="15510" windowHeight="3705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="iClickerQuizPts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="rowSessionNmbr" localSheetId="0">iClickerQuizPts!$1:$1</definedName>
     <definedName name="rowTtlPts" localSheetId="0">iClickerQuizPts!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -346,7 +346,6 @@
     <dxf>
       <font>
         <b/>
-        <family val="2"/>
       </font>
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -718,7 +717,7 @@
   <sheetPr codeName="WshQuizPts"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -899,11 +898,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="WshNoEmail"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,9 +920,11 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\iClickerQuizPtsTracker\iClickerQuizPtsTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="915" windowWidth="15510" windowHeight="3705" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="7020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="iClickerQuizPts" sheetId="1" r:id="rId1"/>
@@ -92,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -407,7 +402,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblFirstQuizDts5" displayName="tblFirstQuizDts5" ref="A1:B2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblNoEmail" displayName="tblNoEmail" ref="A1:B2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
     <tableColumn id="3" name="Last Name" dataDxfId="1"/>
@@ -706,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,7 +898,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\iClickerQuizPtsTracker\iClickerQuizPtsTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="7020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="iClickerQuizPts" sheetId="1" r:id="rId1"/>
     <sheet name="DoubleDippers" sheetId="3" r:id="rId2"/>
-    <sheet name="StudentsAddedByDate" sheetId="2" r:id="rId3"/>
+    <sheet name="ImpossibeScores" sheetId="6" r:id="rId3"/>
     <sheet name="Email-lessStudents" sheetId="5" r:id="rId4"/>
+    <sheet name="StudentsAddedByDate" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ptrCourse">iClickerQuizPts!$B$1</definedName>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Session Nmbr</t>
   </si>
@@ -63,9 +69,6 @@
     <t>Semester:</t>
   </si>
   <si>
-    <t>First Quiz Date</t>
-  </si>
-  <si>
     <t>Score Ignored</t>
   </si>
   <si>
@@ -83,11 +86,17 @@
   <si>
     <t>Which Session</t>
   </si>
+  <si>
+    <t>Raw iClicker Quiz File Name</t>
+  </si>
+  <si>
+    <t>File Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -263,19 +272,62 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="right" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -286,10 +338,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="right" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -358,55 +406,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A6:D7" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblQuizPts" displayName="tblQuizPts" ref="A6:D7" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A6:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Student ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="20"/>
-    <tableColumn id="3" name="First Name" dataDxfId="19"/>
-    <tableColumn id="4" name="Semester TOTAL" dataDxfId="18"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="32"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="31"/>
+    <tableColumn id="3" name="First Name" dataDxfId="30"/>
+    <tableColumn id="4" name="Semester TOTAL" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblDblDippers" displayName="tblDblDippers" ref="A1:I2" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblDblDippers" displayName="tblDblDippers" ref="A1:I2" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Student ID" dataDxfId="16"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="15"/>
-    <tableColumn id="3" name="First Name" dataDxfId="14"/>
-    <tableColumn id="4" name="Course Week" dataDxfId="13"/>
-    <tableColumn id="5" name="Session" dataDxfId="12"/>
-    <tableColumn id="6" name="Quiz Date" dataDxfId="11"/>
-    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="10"/>
-    <tableColumn id="8" name="Student Score" dataDxfId="9"/>
-    <tableColumn id="9" name="Score Ignored" dataDxfId="8"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="27"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="26"/>
+    <tableColumn id="3" name="First Name" dataDxfId="25"/>
+    <tableColumn id="4" name="Course Week" dataDxfId="24"/>
+    <tableColumn id="5" name="Session" dataDxfId="23"/>
+    <tableColumn id="6" name="Quiz Date" dataDxfId="22"/>
+    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="21"/>
+    <tableColumn id="8" name="Student Score" dataDxfId="20"/>
+    <tableColumn id="9" name="Score Ignored" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="First Quiz Date" dataDxfId="6"/>
-    <tableColumn id="2" name="Student ID" dataDxfId="5"/>
-    <tableColumn id="3" name="Last Name" dataDxfId="4"/>
-    <tableColumn id="4" name="First Name" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblImpossScores" displayName="tblImpossScores" ref="A1:I2" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:I2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Student ID" dataDxfId="10"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="9"/>
+    <tableColumn id="3" name="First Name" dataDxfId="8"/>
+    <tableColumn id="4" name="Course Week" dataDxfId="7"/>
+    <tableColumn id="5" name="Session" dataDxfId="6"/>
+    <tableColumn id="6" name="Quiz Date" dataDxfId="5"/>
+    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="4"/>
+    <tableColumn id="8" name="Student Score" dataDxfId="3"/>
+    <tableColumn id="9" name="Score Ignored" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblNoEmail" displayName="tblNoEmail" ref="A1:B2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblNoEmail" displayName="tblNoEmail" ref="A1:B2" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="3" name="Last Name" dataDxfId="1"/>
-    <tableColumn id="4" name="First Name" dataDxfId="0"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="13"/>
+    <tableColumn id="4" name="First Name" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:E2" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Raw iClicker Quiz File Name" dataDxfId="0"/>
+    <tableColumn id="5" name="File Date" dataDxfId="1"/>
+    <tableColumn id="2" name="Student ID" dataDxfId="17"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="16"/>
+    <tableColumn id="4" name="First Name" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,7 +768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,7 +810,7 @@
       <c r="B2" s="24"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,7 +824,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -798,7 +865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,16 +896,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -851,37 +918,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="WshStdntsAdded"/>
-  <dimension ref="A1:D2"/>
+  <sheetPr codeName="WshImpsbScores"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,7 +987,7 @@
   <sheetPr codeName="WshNoEmail"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -922,4 +1013,51 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="WshStdntsAdded"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
+++ b/iClickerQuizPtsTracker/iClickerQuizPtsTracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="7020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14700" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="iClickerQuizPts" sheetId="1" r:id="rId1"/>
@@ -282,12 +282,33 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -320,27 +341,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -437,43 +437,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblImpossScores" displayName="tblImpossScores" ref="A1:I2" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblImpossScores" displayName="tblImpossScores" ref="A1:I2" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Student ID" dataDxfId="10"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="9"/>
-    <tableColumn id="3" name="First Name" dataDxfId="8"/>
-    <tableColumn id="4" name="Course Week" dataDxfId="7"/>
-    <tableColumn id="5" name="Session" dataDxfId="6"/>
-    <tableColumn id="6" name="Quiz Date" dataDxfId="5"/>
-    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="4"/>
-    <tableColumn id="8" name="Student Score" dataDxfId="3"/>
-    <tableColumn id="9" name="Score Ignored" dataDxfId="2"/>
+    <tableColumn id="1" name="Student ID" dataDxfId="17"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="16"/>
+    <tableColumn id="3" name="First Name" dataDxfId="15"/>
+    <tableColumn id="4" name="Course Week" dataDxfId="14"/>
+    <tableColumn id="5" name="Session" dataDxfId="13"/>
+    <tableColumn id="6" name="Quiz Date" dataDxfId="12"/>
+    <tableColumn id="7" name="Ttl Possible Points" dataDxfId="11"/>
+    <tableColumn id="8" name="Student Score" dataDxfId="10"/>
+    <tableColumn id="9" name="Score Ignored" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblNoEmail" displayName="tblNoEmail" ref="A1:B2" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblNoEmail" displayName="tblNoEmail" ref="A1:B2" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="3" name="Last Name" dataDxfId="13"/>
-    <tableColumn id="4" name="First Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="7"/>
+    <tableColumn id="4" name="First Name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:E2" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblFirstQuizDts" displayName="tblFirstQuizDts" ref="A1:E2" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Raw iClicker Quiz File Name" dataDxfId="0"/>
-    <tableColumn id="5" name="File Date" dataDxfId="1"/>
-    <tableColumn id="2" name="Student ID" dataDxfId="17"/>
-    <tableColumn id="3" name="Last Name" dataDxfId="16"/>
-    <tableColumn id="4" name="First Name" dataDxfId="15"/>
+    <tableColumn id="1" name="Raw iClicker Quiz File Name" dataDxfId="4"/>
+    <tableColumn id="5" name="File Date" dataDxfId="3"/>
+    <tableColumn id="2" name="Student ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Last Name" dataDxfId="1"/>
+    <tableColumn id="4" name="First Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,7 +779,7 @@
   <sheetPr codeName="WshQuizPts"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -921,8 +921,8 @@
   <sheetPr codeName="WshImpsbScores"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
